--- a/publipostage2/05k9skc85/liste_essais_cliniques_identifies_05k9skc85.xlsx
+++ b/publipostage2/05k9skc85/liste_essais_cliniques_identifies_05k9skc85.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/05k9skc85/liste_essais_cliniques_identifies_05k9skc85.xlsx
+++ b/publipostage2/05k9skc85/liste_essais_cliniques_identifies_05k9skc85.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,36 +513,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT02287844</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Xylo-oligosaccharide (XOS) in Combination With Inulin Modulates Both the Intestinal Environment and Immune Status in Healthy Subjects, While XOS Alone Only Shows Prebiotic Properties</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>PIB</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -556,36 +566,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT01480700</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Effect of Consumption of Eggs Rich in Xanthophyll Carotenoids and Omega-3 Fatty Acids on the Macular Pigment in Healthy People</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>ALGOVUE</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -604,36 +619,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT02353403</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Postprandial Glycaemic and Insulinaemic Responses After Consumption of Dairy Desserts Containing Fructo-oligosaccharides in Adults.</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>GLYCOFOS-cream</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -652,36 +672,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT02352857</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Postprandial Glycaemic and Insulinaemic Responses After Consumption of Minicakes Containing FOS in Adults</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>GLYCOFOS-cake</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -700,36 +725,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT03203135</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Assesment of the Impact of a Nutritional Prevention Programme for Employees in Staggered Hours.</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>PREV'HODE</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -748,36 +778,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT02997826</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Effect of Infant Formula Consumption on Infant Growth From 0 to 6 Months</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>BABYMILK</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -796,36 +831,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT03872297</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Effect of a Fish Collagen Peptide Food Supplement on the Weight and Body Composition of Healthy Volunteers in Overweight</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>NATICOL</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -844,36 +884,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT05306106</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Determination of the Glycemic Index of Pastry. A Randomized Study on Healthy Volunteers.</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>IG-DESSERT</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -892,36 +937,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT04468880</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Effect of Milk Consumption, Containing A2 β-caseins Only, on Digestive Comfort. A Randomized and Double-blind Study</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>A2-DIGEST</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -940,36 +990,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT03936257</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Evaluation of an Innovative BIO Formula Based on a New Whey Extraction Process on the Growth and Tolerance of Infants From 0 to 6 Months.</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>TRUEGREEN</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -986,38 +1041,43 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2021-000045-41</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Adaptive, Ambulatory, Randomised, Placebo-Controlled, Double-Blind, Phase 2/3 Study to Evaluate the Safety, Tolerability, and Efficacy of TEE001DP in Patients at the Early Stage of Symptomatic COVID-19</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>THERAPIDE</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1032,36 +1092,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT05306093</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Chronic Effect of a Standardized Saffron Extract on Depressed Mood and Anhedonia in Healthy Adults. A Randomized Controlled Double-blind Clinical Trial.</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>MOOD5</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -1080,36 +1145,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT05178667</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Effect of Carrot Seed and Rose Hip Extracts on Weight Management in Subjects With Overweight or Moderate Obesity. A Controlled, Randomized and Double-blind Study.</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>PHYTOENIX</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -1128,36 +1198,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT05221346</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Effect of Oleactiv® on LDL Oxidability in Volunteers With Moderate Hypercholesterolemia - a Controlled, Randomized, Double-blind Study</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>e-POL</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -1176,36 +1251,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT04532892</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Efficacy and Tolerance of a Specialized Nutraceutical for Pre-burnout - a Randomized, Double Blind Placebo Controlled Study</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>WELBI</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -1224,36 +1304,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT06432010</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Effect of a Health Check-up Followed by a Collective Coaching on the Quality of Life and Behavioral Change of Retired Persons. A Prospective Study Conducted in Ambulatory.</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>R-FORM'</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>

--- a/publipostage2/05k9skc85/liste_essais_cliniques_identifies_05k9skc85.xlsx
+++ b/publipostage2/05k9skc85/liste_essais_cliniques_identifies_05k9skc85.xlsx
@@ -55,10 +55,10 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>pas de résultat ni de publication</t>

--- a/publipostage2/05k9skc85/liste_essais_cliniques_identifies_05k9skc85.xlsx
+++ b/publipostage2/05k9skc85/liste_essais_cliniques_identifies_05k9skc85.xlsx
@@ -55,7 +55,7 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
+    <t>⚠️</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/05k9skc85/liste_essais_cliniques_identifies_05k9skc85.xlsx
+++ b/publipostage2/05k9skc85/liste_essais_cliniques_identifies_05k9skc85.xlsx
@@ -58,10 +58,10 @@
     <t>⚠️</t>
   </si>
   <si>
-    <t>bleu</t>
-  </si>
-  <si>
-    <t>pas de résultat ni de publication</t>
+    <t>noir</t>
+  </si>
+  <si>
+    <t>pas de résultat postés ni publiés</t>
   </si>
   <si>
     <t>NCT02287844</t>

--- a/publipostage2/05k9skc85/liste_essais_cliniques_identifies_05k9skc85.xlsx
+++ b/publipostage2/05k9skc85/liste_essais_cliniques_identifies_05k9skc85.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
   <si>
     <t>statut</t>
   </si>
   <si>
-    <t>statut_label</t>
-  </si>
-  <si>
     <t>statut_name</t>
   </si>
   <si>
@@ -43,25 +40,13 @@
     <t>acronym</t>
   </si>
   <si>
-    <t>results_1y</t>
-  </si>
-  <si>
-    <t>results_3y</t>
-  </si>
-  <si>
-    <t>results</t>
-  </si>
-  <si>
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⚠️</t>
-  </si>
-  <si>
-    <t>noir</t>
-  </si>
-  <si>
-    <t>pas de résultat postés ni publiés</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4: pas de résultats postés ni publiés</t>
   </si>
   <si>
     <t>NCT02287844</t>
@@ -596,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,574 +615,370 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
+      <c r="F5" t="s">
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
         <v>44</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H11" t="s">
         <v>60</v>
       </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
         <v>48</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H15" t="s">
         <v>64</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" t="s">
-        <v>53</v>
       </c>
       <c r="I15" t="s">
         <v>69</v>
       </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I17" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/05k9skc85/liste_essais_cliniques_identifies_05k9skc85.xlsx
+++ b/publipostage2/05k9skc85/liste_essais_cliniques_identifies_05k9skc85.xlsx
@@ -73,24 +73,24 @@
     <t>NCT05306106</t>
   </si>
   <si>
+    <t>NCT03936257</t>
+  </si>
+  <si>
     <t>NCT04468880</t>
   </si>
   <si>
-    <t>NCT03936257</t>
-  </si>
-  <si>
     <t>NCT05306093</t>
   </si>
   <si>
     <t>NCT05178667</t>
   </si>
   <si>
+    <t>NCT04532892</t>
+  </si>
+  <si>
     <t>NCT05221346</t>
   </si>
   <si>
-    <t>NCT04532892</t>
-  </si>
-  <si>
     <t>NCT06432010</t>
   </si>
   <si>
@@ -145,12 +145,12 @@
     <t>Determination of the Glycemic Index of Pastry. A Randomized Study on Healthy Volunteers.</t>
   </si>
   <si>
+    <t>Evaluation of an Innovative BIO Formula Based on a New Whey Extraction Process on the Growth and Tolerance of Infants From 0 to 6 Months.</t>
+  </si>
+  <si>
     <t>Effect of Milk Consumption, Containing A2 β-caseins Only, on Digestive Comfort. A Randomized and Double-blind Study</t>
   </si>
   <si>
-    <t>Evaluation of an Innovative BIO Formula Based on a New Whey Extraction Process on the Growth and Tolerance of Infants From 0 to 6 Months.</t>
-  </si>
-  <si>
     <t>Adaptive, Ambulatory, Randomised, Placebo-Controlled, Double-Blind, Phase 2/3 Study to Evaluate the Safety, Tolerability, and Efficacy of TEE001DP in Patients at the Early Stage of Symptomatic COVID-19</t>
   </si>
   <si>
@@ -160,12 +160,12 @@
     <t>Effect of Carrot Seed and Rose Hip Extracts on Weight Management in Subjects With Overweight or Moderate Obesity. A Controlled, Randomized and Double-blind Study.</t>
   </si>
   <si>
+    <t>Efficacy and Tolerance of a Specialized Nutraceutical for Pre-burnout - a Randomized, Double Blind Placebo Controlled Study</t>
+  </si>
+  <si>
     <t>Effect of Oleactiv® on LDL Oxidability in Volunteers With Moderate Hypercholesterolemia - a Controlled, Randomized, Double-blind Study</t>
   </si>
   <si>
-    <t>Efficacy and Tolerance of a Specialized Nutraceutical for Pre-burnout - a Randomized, Double Blind Placebo Controlled Study</t>
-  </si>
-  <si>
     <t>Effect of a Health Check-up Followed by a Collective Coaching on the Quality of Life and Behavioral Change of Retired Persons. A Prospective Study Conducted in Ambulatory.</t>
   </si>
   <si>
@@ -193,12 +193,12 @@
     <t>IG-DESSERT</t>
   </si>
   <si>
+    <t>TRUEGREEN</t>
+  </si>
+  <si>
     <t>A2-DIGEST</t>
   </si>
   <si>
-    <t>TRUEGREEN</t>
-  </si>
-  <si>
     <t>THERAPIDE</t>
   </si>
   <si>
@@ -208,10 +208,10 @@
     <t>PHYTOENIX</t>
   </si>
   <si>
+    <t>WELBI</t>
+  </si>
+  <si>
     <t>e-POL</t>
-  </si>
-  <si>
-    <t>WELBI</t>
   </si>
   <si>
     <t>R-FORM'</t>

--- a/publipostage2/05k9skc85/liste_essais_cliniques_identifies_05k9skc85.xlsx
+++ b/publipostage2/05k9skc85/liste_essais_cliniques_identifies_05k9skc85.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
   <si>
     <t>statut</t>
   </si>
@@ -46,7 +46,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
+    <t>4 : pas de résultats postés ni publiés</t>
   </si>
   <si>
     <t>NCT02287844</t>
@@ -61,33 +61,33 @@
     <t>NCT02352857</t>
   </si>
   <si>
+    <t>NCT02997826</t>
+  </si>
+  <si>
     <t>NCT03203135</t>
   </si>
   <si>
-    <t>NCT02997826</t>
-  </si>
-  <si>
     <t>NCT03872297</t>
   </si>
   <si>
     <t>NCT05306106</t>
   </si>
   <si>
+    <t>NCT04468880</t>
+  </si>
+  <si>
     <t>NCT03936257</t>
   </si>
   <si>
-    <t>NCT04468880</t>
-  </si>
-  <si>
     <t>NCT05306093</t>
   </si>
   <si>
+    <t>NCT04532892</t>
+  </si>
+  <si>
     <t>NCT05178667</t>
   </si>
   <si>
-    <t>NCT04532892</t>
-  </si>
-  <si>
     <t>NCT05221346</t>
   </si>
   <si>
@@ -133,36 +133,36 @@
     <t>Postprandial Glycaemic and Insulinaemic Responses After Consumption of Minicakes Containing FOS in Adults</t>
   </si>
   <si>
+    <t>Effect of Infant Formula Consumption on Infant Growth From 0 to 6 Months</t>
+  </si>
+  <si>
     <t>Assesment of the Impact of a Nutritional Prevention Programme for Employees in Staggered Hours.</t>
   </si>
   <si>
-    <t>Effect of Infant Formula Consumption on Infant Growth From 0 to 6 Months</t>
-  </si>
-  <si>
     <t>Effect of a Fish Collagen Peptide Food Supplement on the Weight and Body Composition of Healthy Volunteers in Overweight</t>
   </si>
   <si>
     <t>Determination of the Glycemic Index of Pastry. A Randomized Study on Healthy Volunteers.</t>
   </si>
   <si>
+    <t>Effect of Milk Consumption, Containing A2 β-caseins Only, on Digestive Comfort. A Randomized and Double-blind Study</t>
+  </si>
+  <si>
     <t>Evaluation of an Innovative BIO Formula Based on a New Whey Extraction Process on the Growth and Tolerance of Infants From 0 to 6 Months.</t>
   </si>
   <si>
-    <t>Effect of Milk Consumption, Containing A2 β-caseins Only, on Digestive Comfort. A Randomized and Double-blind Study</t>
+    <t>Chronic Effect of a Standardized Saffron Extract on Depressed Mood and Anhedonia in Healthy Adults. A Randomized Controlled Double-blind Clinical Trial.</t>
   </si>
   <si>
     <t>Adaptive, Ambulatory, Randomised, Placebo-Controlled, Double-Blind, Phase 2/3 Study to Evaluate the Safety, Tolerability, and Efficacy of TEE001DP in Patients at the Early Stage of Symptomatic COVID-19</t>
   </si>
   <si>
-    <t>Chronic Effect of a Standardized Saffron Extract on Depressed Mood and Anhedonia in Healthy Adults. A Randomized Controlled Double-blind Clinical Trial.</t>
+    <t>Efficacy and Tolerance of a Specialized Nutraceutical for Pre-burnout - a Randomized, Double Blind Placebo Controlled Study</t>
   </si>
   <si>
     <t>Effect of Carrot Seed and Rose Hip Extracts on Weight Management in Subjects With Overweight or Moderate Obesity. A Controlled, Randomized and Double-blind Study.</t>
   </si>
   <si>
-    <t>Efficacy and Tolerance of a Specialized Nutraceutical for Pre-burnout - a Randomized, Double Blind Placebo Controlled Study</t>
-  </si>
-  <si>
     <t>Effect of Oleactiv® on LDL Oxidability in Volunteers With Moderate Hypercholesterolemia - a Controlled, Randomized, Double-blind Study</t>
   </si>
   <si>
@@ -181,36 +181,36 @@
     <t>GLYCOFOS-cake</t>
   </si>
   <si>
+    <t>BABYMILK</t>
+  </si>
+  <si>
     <t>PREV'HODE</t>
   </si>
   <si>
-    <t>BABYMILK</t>
-  </si>
-  <si>
     <t>NATICOL</t>
   </si>
   <si>
     <t>IG-DESSERT</t>
   </si>
   <si>
+    <t>A2-DIGEST</t>
+  </si>
+  <si>
     <t>TRUEGREEN</t>
   </si>
   <si>
-    <t>A2-DIGEST</t>
+    <t>MOOD5</t>
   </si>
   <si>
     <t>THERAPIDE</t>
   </si>
   <si>
-    <t>MOOD5</t>
+    <t>WELBI</t>
   </si>
   <si>
     <t>PHYTOENIX</t>
   </si>
   <si>
-    <t>WELBI</t>
-  </si>
-  <si>
     <t>e-POL</t>
   </si>
   <si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>DIETARY_SUPPLEMENT</t>
+  </si>
+  <si>
+    <t>DRUG (presumed)</t>
   </si>
 </sst>
 </file>
@@ -728,7 +731,7 @@
         <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -751,7 +754,7 @@
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -853,8 +856,8 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>26</v>
+      <c r="C12" t="s">
+        <v>21</v>
       </c>
       <c r="F12" t="s">
         <v>33</v>
@@ -865,6 +868,9 @@
       <c r="H12" t="s">
         <v>61</v>
       </c>
+      <c r="I12" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
@@ -873,8 +879,8 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
-        <v>21</v>
+      <c r="D13" t="s">
+        <v>26</v>
       </c>
       <c r="F13" t="s">
         <v>33</v>
@@ -886,7 +892,7 @@
         <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:9">
